--- a/Mendel Android.xlsx
+++ b/Mendel Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5893A752-DFAE-4EF6-80AA-F8FD0B74D6D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72044A15-7DBE-46A5-B9E4-EDD43D2E6BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61EDDE77-E8CE-4C6F-B50E-9D9497CBBB37}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{61EDDE77-E8CE-4C6F-B50E-9D9497CBBB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Disc" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Padre1</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Contador</t>
-  </si>
-  <si>
-    <t>aaaa</t>
   </si>
   <si>
     <r>
@@ -535,28 +532,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,6 +561,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950ABF98-C09A-4579-8CBB-BF318048EA8E}">
   <dimension ref="C2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:K13"/>
     </sheetView>
   </sheetViews>
@@ -895,127 +892,127 @@
   <sheetData>
     <row r="2" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="28"/>
+      <c r="D3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="29"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="29"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="30"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="29"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="30"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="29"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="30"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="29"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="30"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="29"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="30"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="30"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="29"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="30"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="29"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="30"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="3:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="2"/>
     </row>
   </sheetData>
@@ -1032,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30475EE-F0E4-4E00-8A23-608071877C40}">
   <dimension ref="A4:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,19 +1084,19 @@
       <c r="G5" s="6"/>
       <c r="H5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!D13:D20)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="I5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!E13:E20)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="J5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F13:F20)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="K5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!G13:G20)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="L5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!H13:H20)</f>
@@ -1119,34 +1116,30 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F2:M2)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="H6" s="19" t="str">
         <f t="shared" ref="H6:O13" si="5">IF(AND(LEN(H$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G6,1,1)&amp;MID(H$5,2,1)&amp;MID($G6,2,1)&amp;MID(H$5,3,1)&amp;MID($G6,3,1)&amp;MID(H$5,4,1)&amp;MID($G6,4,1)&amp;MID(H$5,5,1)&amp;MID($G6,5,1)&amp;MID(H$5,6,1)&amp;MID($G6,6,1)&amp;MID(H$5,7,1)&amp;MID($G6,7,1)&amp;MID(H$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="I6" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="J6" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="K6" s="20" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="L6" s="20" t="str">
         <f t="shared" si="5"/>
@@ -1174,23 +1167,23 @@
       </c>
       <c r="G7" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F3:M3)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="H7" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1210,10 +1203,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="3"/>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F13" si="6">+F7+1</f>
@@ -1221,23 +1214,23 @@
       </c>
       <c r="G8" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F4:M4)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="H8" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1260,7 +1253,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="15">
         <f>LEN(Padre1)/2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="16"/>
       <c r="F9" s="8">
@@ -1269,23 +1262,23 @@
       </c>
       <c r="G9" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F5:M5)</f>
-        <v>aa</v>
+        <v/>
       </c>
       <c r="H9" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>aaaa</v>
+        <v/>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1516,24 +1509,24 @@
       </c>
       <c r="B1">
         <f>LEN(Tabla!B6)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="1" t="e">
         <f t="shared" ref="D2:D8" si="0">DEC2BIN(E1,NumCar)</f>
-        <v>00</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="str">
         <f t="shared" ref="F2:M9" si="1">IF(AND(O$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D2,O$12,1),1),"")</f>
-        <v>a</v>
+        <v/>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="H2" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1561,9 +1554,9 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E9" si="2">+E2+1</f>
@@ -1571,11 +1564,11 @@
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1603,9 +1596,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>#NUM!</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="2"/>
@@ -1613,11 +1606,11 @@
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1645,9 +1638,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="2"/>
@@ -1655,11 +1648,11 @@
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1855,21 +1848,21 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="1" t="e">
         <f>+DEC2BIN(B11,NumCar)</f>
-        <v>00</v>
-      </c>
-      <c r="E11" s="1" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="1" t="e">
         <f t="shared" ref="E11:K11" si="3">+DEC2BIN(D12,NumCar)</f>
-        <v>01</v>
-      </c>
-      <c r="F11" s="1" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="H11" s="1" t="e">
         <f t="shared" si="3"/>
@@ -1957,19 +1950,19 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="str">
         <f t="shared" ref="D13:K20" si="6">IF(AND($O12&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(D$11,$O12,1),1),"")</f>
-        <v>a</v>
+        <v/>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="6"/>
@@ -1995,19 +1988,19 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>a</v>
+        <v/>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="6"/>

--- a/Mendel Android.xlsx
+++ b/Mendel Android.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72044A15-7DBE-46A5-B9E4-EDD43D2E6BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC9B31F-40C5-4B07-80A4-30999B476A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{61EDDE77-E8CE-4C6F-B50E-9D9497CBBB37}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A4:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Mendel Android.xlsx
+++ b/Mendel Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC9B31F-40C5-4B07-80A4-30999B476A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A5231-6701-4092-A79D-1B369BB845FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{61EDDE77-E8CE-4C6F-B50E-9D9497CBBB37}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61EDDE77-E8CE-4C6F-B50E-9D9497CBBB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Disc" sheetId="2" r:id="rId1"/>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950ABF98-C09A-4579-8CBB-BF318048EA8E}">
   <dimension ref="C2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:K13"/>
     </sheetView>
   </sheetViews>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30475EE-F0E4-4E00-8A23-608071877C40}">
   <dimension ref="A4:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
